--- a/StudentuSarasas_2016.xlsx
+++ b/StudentuSarasas_2016.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vygantas\Destymas\Econometrics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Ekonometrija 2k-1gr" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ekonometrija 2k-1gr" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Lapas1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ekonometrija 2k-1gr'!$A$5:$F$21</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>EKONOMETRIJA 2 kursas 1 grupė      2016 01 15</t>
   </si>
@@ -128,7 +134,7 @@
     <t>rura2316</t>
   </si>
   <si>
-    <t>Samsonas </t>
+    <t>Samsonas</t>
   </si>
   <si>
     <t>Kornelijus</t>
@@ -164,7 +170,7 @@
     <t>BaumilaiteG</t>
   </si>
   <si>
-    <t>Gudauskaitė </t>
+    <t>Gudauskaitė</t>
   </si>
   <si>
     <t>Laura</t>
@@ -203,7 +209,7 @@
     <t>Jurgis Mantas</t>
   </si>
   <si>
-    <t>Sasnauskaitė </t>
+    <t>Sasnauskaitė</t>
   </si>
   <si>
     <t>Justina</t>
@@ -213,37 +219,34 @@
   </si>
   <si>
     <t>Alanas</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Task3</t>
+  </si>
+  <si>
+    <t>Moneta</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -253,7 +256,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,9 +269,21 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -276,81 +291,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -409,70 +413,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="„Office“ tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.61943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="5.5703125"/>
+    <col min="2" max="2" width="13"/>
+    <col min="3" max="3" width="14"/>
+    <col min="4" max="4" width="16.42578125"/>
+    <col min="5" max="5" width="22.85546875"/>
+    <col min="6" max="6" width="15.140625"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -492,11 +766,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
         <v>1410441</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -505,18 +779,18 @@
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>1410436</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -528,31 +802,31 @@
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="F7" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>1410435</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -561,18 +835,18 @@
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>1410439</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -581,18 +855,18 @@
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="F10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="7">
         <v>1410440</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -601,18 +875,18 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="F11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>1410444</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -621,18 +895,18 @@
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="F12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="7">
         <v>1410438</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -641,18 +915,18 @@
       <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="F13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>1410443</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -661,18 +935,18 @@
       <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="F14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>1411439</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -681,36 +955,36 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="F15" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="n">
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
         <v>1410437</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -719,18 +993,18 @@
       <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="F17" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>1410433</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -739,18 +1013,18 @@
       <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="F18" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="7">
         <v>1311377</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -759,18 +1033,18 @@
       <c r="D19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="F19" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>1410446</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -779,18 +1053,18 @@
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="F20" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="7">
         <v>1410448</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -799,35 +1073,35 @@
       <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="F21" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="7">
         <v>1411440</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -837,9 +1111,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="7">
         <v>1410445</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -849,9 +1123,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="7">
         <v>1413328</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -861,9 +1135,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="7">
         <v>1410442</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -878,172 +1152,616 @@
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B5:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:S22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="18" min="3" style="0" width="4.73279352226721"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.1417004048583"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="19" width="4.7109375"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G6" s="11">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I6" s="11">
         <v>6</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J6" s="11">
         <v>7</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K6" s="11">
         <v>8</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L6" s="11">
         <v>9</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M6" s="11">
         <v>10</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N6" s="11">
         <v>11</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="O6" s="11">
+        <v>12</v>
+      </c>
+      <c r="P6" s="11">
         <v>13</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q6" s="11">
         <v>14</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R6" s="11">
         <v>15</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S6" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>1</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="11">
         <v>16</v>
       </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StudentuSarasas_2016.xlsx
+++ b/StudentuSarasas_2016.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$21</definedName>
     <definedName function="false" hidden="false" name="LOCAL_MYSQL_DATE_FORMAT" vbProcedure="false">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>EKONOMETRIJA 2 kursas 1 grupė      2016 01 15</t>
   </si>
@@ -191,6 +192,15 @@
     <t>Manvydas</t>
   </si>
   <si>
+    <t>Trapulionis</t>
+  </si>
+  <si>
+    <t>Alanas</t>
+  </si>
+  <si>
+    <t>AlanasTrapulionis1994</t>
+  </si>
+  <si>
     <t>Neegzistuoja:</t>
   </si>
   <si>
@@ -210,12 +220,6 @@
   </si>
   <si>
     <t>Justina</t>
-  </si>
-  <si>
-    <t>Trapulionis</t>
-  </si>
-  <si>
-    <t>Alanas</t>
   </si>
   <si>
     <t>Norodymai:</t>
@@ -390,7 +394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,20 +487,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -766,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>12</v>
       </c>
@@ -866,6 +870,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="n">
+        <v>1410442</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -880,7 +901,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -891,10 +912,10 @@
         <v>1411440</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,34 +924,22 @@
         <v>1410445</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="n">
         <v>1413328</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="n">
-        <v>1410442</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -954,26 +963,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:S24"/>
+  <dimension ref="B1:T65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="19" min="5" style="0" width="4.60728744939271"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="5" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.73279352226721"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -995,7 +1005,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1017,7 +1027,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1039,7 +1049,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1059,424 +1069,468 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="n">
+    <row r="10" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F10" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G10" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I10" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J10" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="M8" s="11" t="n">
+      <c r="M10" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="N8" s="11" t="n">
+      <c r="N10" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="O8" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="P8" s="11" t="n">
+      <c r="O10" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="P10" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="Q8" s="11" t="n">
+      <c r="Q10" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="R8" s="11" t="n">
+      <c r="R10" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="S8" s="11" t="n">
+      <c r="S10" s="11" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8" t="s">
+      <c r="T10" s="11" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8" t="s">
+      <c r="C11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+      <c r="F12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C13" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8" t="s">
+      <c r="G13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C14" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8" t="s">
+      <c r="D14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
+      <c r="F15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C16" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8" t="s">
+      <c r="D16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C17" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="s">
+      <c r="E17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C18" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
+      <c r="F18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C19" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8" t="s">
+      <c r="D19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C20" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="E20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
+      <c r="F21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8" t="s">
+      <c r="C22" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C23" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8" t="s">
+      <c r="E23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C24" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
+      <c r="I24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C25" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="s">
+      <c r="D25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C26" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="E24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="E26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:S2"/>
@@ -1508,27 +1562,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/StudentuSarasas_2016.xlsx
+++ b/StudentuSarasas_2016.xlsx
@@ -12,13 +12,16 @@
     <sheet name="Vertinimų paskirstymas" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
     <definedName function="false" hidden="false" name="LOCAL_MYSQL_DATE_FORMAT" vbProcedure="false">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$20</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Ekonometrija 2k-1gr'!$A$5:$F$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,12 +32,167 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Perteklius tamp auksiniais taskais (už prezentacija)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Perteklius tampa auksiniai taskai
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Perteklius tampa auksiniai taskai</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Perteklius tampa auksiniai taskai</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Uz google programa
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Uz salygini vidurki paskaitos metu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Už prezentacija</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Uz salygini vidurki ir gera klausimo atsakyma
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>Už gerą blogo įrašą ir prezentaciją</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>EKONOMETRIJA 2 kursas 1 grupė      2016 01 15</t>
   </si>
   <si>
+    <t>SavarankiskiDarbai</t>
+  </si>
+  <si>
+    <t>PapildomiTaskai</t>
+  </si>
+  <si>
+    <t>Perkeliami auksiniai taskai</t>
+  </si>
+  <si>
+    <t>BendriTaskai</t>
+  </si>
+  <si>
+    <t>Taskai prieš egzaminą</t>
+  </si>
+  <si>
     <t>nr</t>
   </si>
   <si>
@@ -51,6 +209,18 @@
   </si>
   <si>
     <t>Swirl</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Degantys</t>
+  </si>
+  <si>
+    <t>Auksiniai</t>
   </si>
   <si>
     <t>Trapulionis</t>
@@ -234,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,13 +435,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +456,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -343,7 +531,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,11 +552,35 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,10 +588,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,23 +608,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,7 +653,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -466,7 +686,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -489,10 +709,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -501,9 +721,18 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6842105263158"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5748987854251"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,419 +758,756 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="13" t="n">
         <v>1410442</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
+      <c r="H6" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">SUM(H6:J6)-L6</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">K6+L6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">MIN(6,M6) +N6</f>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="13" t="n">
         <v>1410433</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H7" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">SUM(H7:J7)-L7</f>
+        <v>5.5</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">K7+L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">MIN(6,M7) +N7</f>
+        <v>5.5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="13" t="n">
         <v>1410438</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
+      <c r="H8" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">SUM(H8:J8)-L8</f>
+        <v>6.2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">K8+L8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">MIN(6,M8) +N8</f>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="13" t="n">
         <v>1311377</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H9" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">SUM(H9:J9)-L9</f>
+        <v>6.2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">K9+L9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">MIN(6,M9) +N9</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="n">
+      <c r="A10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="n">
         <v>1410441</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H10" s="16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">SUM(H10:J10)-L10</f>
+        <v>5.8</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">K10+L10</f>
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">MIN(6,M10) +N10</f>
+        <v>6.2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="13" t="n">
         <v>1410440</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H11" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">SUM(H11:J11)-L11</f>
+        <v>6.7</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">K11+L11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">MIN(6,M11) +N11</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="13" t="n">
         <v>1411439</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
+      <c r="C12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H12" s="16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">SUM(H12:J12)-L12</f>
+        <v>6</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">K12+L12</f>
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">MIN(6,M12) +N12</f>
+        <v>6.2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="13" t="n">
         <v>1410436</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
+      <c r="C13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H13" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">+0.5+0.3</f>
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">SUM(H13:J13)-L13</f>
+        <v>7.9</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">K13+L13</f>
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">MIN(6,M13) +N13</f>
+        <v>6.8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="13" t="n">
         <v>1410448</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
+      <c r="H14" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">SUM(H14:J14)-L14</f>
+        <v>5.3</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">K14+L14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">MIN(6,M14) +N14</f>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="13" t="n">
         <v>1410446</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
+      <c r="C15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H15" s="16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">SUM(H15:J15)-L15</f>
+        <v>5.8</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">K15+L15</f>
+        <v>1.2</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">MIN(6,M15) +N15</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="13" t="n">
         <v>1410437</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
+      <c r="C16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H16" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">SUM(H16:J16)-L16</f>
+        <v>6.1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">K16+L16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">MIN(6,M16) +N16</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="13" t="n">
         <v>1410443</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
+      <c r="C17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H17" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">SUM(H17:J17)-L17</f>
+        <v>7</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">K17+L17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">MIN(6,M17) +N17</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="13" t="n">
         <v>1410444</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
+      <c r="C18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H18" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">SUM(H18:J18)-L18</f>
+        <v>6.2</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">K18+L18</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">MIN(6,M18) +N18</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="13" t="n">
         <v>1410435</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>46</v>
+      <c r="C19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="H19" s="16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">SUM(H19:J19)-L19</f>
+        <v>5.8</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">K19+L19</f>
+        <v>1.1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">MIN(6,M19) +N19</f>
+        <v>6.9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7" t="n">
+      <c r="A20" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13" t="n">
         <v>1410439</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
+      <c r="C20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(H20:J20)-L20</f>
+        <v>6.9</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">K20+L20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">MIN(6,M20) +N20</f>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="n">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="n">
         <v>1411440</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="C27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="n">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="n">
         <v>1410445</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="C28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="n">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="n">
         <v>1413328</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="C29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>59</v>
+      <c r="C30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>61</v>
+      <c r="C31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:F20"/>
-  <mergeCells count="1">
+  <autoFilter ref="A5:F19"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -950,7 +1516,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -961,14 +1528,14 @@
   </sheetPr>
   <dimension ref="B2:S65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V18" activeCellId="0" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="18" min="5" style="0" width="4.39271255060729"/>
@@ -976,135 +1543,135 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="B2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="B3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="B4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14" t="n">
+      <c r="D9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="14" t="n">
+      <c r="H9" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="K9" s="14" t="n">
+      <c r="K9" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="L9" s="14" t="n">
+      <c r="L9" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="M9" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="N9" s="14" t="n">
+      <c r="N9" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="O9" s="14" t="n">
+      <c r="O9" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="P9" s="14" t="n">
+      <c r="P9" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="Q9" s="14" t="n">
+      <c r="Q9" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="R9" s="14" t="n">
+      <c r="R9" s="22" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="15" t="n">
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
@@ -1113,25 +1680,25 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="15" t="n">
+      <c r="F11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="0" t="n">
@@ -1140,25 +1707,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="15" t="n">
+      <c r="D12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S12" s="0" t="n">
@@ -1167,25 +1734,25 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="15" t="n">
+      <c r="E13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S13" s="0" t="n">
@@ -1194,25 +1761,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="15" t="n">
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S14" s="0" t="n">
@@ -1221,25 +1788,25 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="14" t="n">
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="D15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="15" t="n">
+      <c r="D15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S15" s="0" t="n">
@@ -1248,25 +1815,25 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="14" t="n">
+      <c r="B16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="E16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="15" t="n">
+      <c r="E16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S16" s="0" t="n">
@@ -1275,25 +1842,25 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="15" t="n">
+      <c r="F17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S17" s="0" t="n">
@@ -1302,25 +1869,25 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="D18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="15" t="n">
+      <c r="D18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S18" s="0" t="n">
@@ -1329,25 +1896,25 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="14" t="n">
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="15" t="n">
+      <c r="E19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="0" t="n">
@@ -1356,25 +1923,25 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="n">
+      <c r="B20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="F20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="15" t="n">
+      <c r="F20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S20" s="0" t="n">
@@ -1383,25 +1950,25 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="14" t="n">
+      <c r="B21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="D21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="15" t="n">
+      <c r="D21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S21" s="0" t="n">
@@ -1410,25 +1977,25 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="14" t="n">
+      <c r="B22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="E22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="15" t="n">
+      <c r="E22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S22" s="0" t="n">
@@ -1437,25 +2004,25 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="14" t="n">
+      <c r="B23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="F23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="15" t="n">
+      <c r="F23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S23" s="0" t="n">
@@ -1464,25 +2031,25 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="14" t="n">
+      <c r="B24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="D24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="15" t="n">
+      <c r="D24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="23" t="n">
         <v>1</v>
       </c>
       <c r="S24" s="0" t="n">
